--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_546.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_546.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32648-d240153-Reviews-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Long-Beach.h996208.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085072176&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=13d3bd66-85b5-485c-95ab-e2b58b1705c6&amp;mctc=9&amp;exp_dp=99.99&amp;exp_ts=1529085072689&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_546.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,255 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r474311427-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>32648</t>
+  </si>
+  <si>
+    <t>240153</t>
+  </si>
+  <si>
+    <t>474311427</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Clean and suprisingly nice</t>
+  </si>
+  <si>
+    <t>I stayed here because my floors were getting refinished and I needed a place to stay that accepted animals.  The rooms have been remodeled, and do not have carpeting--a big plus since animals are allowed.  It was clean, and sparse, yet functional.  Be aware that there is no shampoo provided, and the sheets, towels, and toiler paper are very thin.  No coffee in the room either.  It can also be difficult getting in and out from PCH.  The biggest issue I had was the internet.  It is not included, and you have to go to the front office to purchase a code good for 24 hours.  This code will only work on one device, so if there are two of you in the room, you cannot both be on the internet.  This was incredibly frustrating, but other than that, no real complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed here because my floors were getting refinished and I needed a place to stay that accepted animals.  The rooms have been remodeled, and do not have carpeting--a big plus since animals are allowed.  It was clean, and sparse, yet functional.  Be aware that there is no shampoo provided, and the sheets, towels, and toiler paper are very thin.  No coffee in the room either.  It can also be difficult getting in and out from PCH.  The biggest issue I had was the internet.  It is not included, and you have to go to the front office to purchase a code good for 24 hours.  This code will only work on one device, so if there are two of you in the room, you cannot both be on the internet.  This was incredibly frustrating, but other than that, no real complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r431349940-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>431349940</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Surprisingly nice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the nicest Motel 6 I've ever stayed at. Rooms seemed updated with modern furniture, hardwood floors, and in general was very clean. Staff were extremely friendly and check in was fast and easy. Located on 7th and pch. With lost of events in the area that weekend, it was nice to find a reasonably priced motel at last minute. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r428794786-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>428794786</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Clean, comfortable</t>
+  </si>
+  <si>
+    <t>Check in and check out were easy and the staff very friendly.  Good location, not too far from the waterfront and freeways. Room was extremely clean and looked to have been recently upgraded. The bed and pillows were very comfortable.  Considering the place is on a main street, the noise level was very low. Close to restaurants (Jack in the Box next door, Denny's down the street, several others not far).  Wifi for a charge and no hair dryer in the room were the only negatives.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r377448274-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>377448274</t>
+  </si>
+  <si>
+    <t>05/28/2016</t>
+  </si>
+  <si>
+    <t>Near the Long Beach VA hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had business at the LA VAMC and this hotel was close and the price was good. The hotel is located at a very busy intersection. The room was clean. A big flat screen TV. WIFI was available for a price. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r358213721-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>358213721</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent for the Price</t>
+  </si>
+  <si>
+    <t>Excellent location, good size room, clean although I couldn't expect more for the price. Nice reception (Los Angeles doesn't have friendly people) and I was surprised by it. Quiet despite being almost full. No internet unless you pay additional fees, I don't like public wifi's anyways. No breakfast but many eating areas at walking distance. Close to CSULB and other shopping areas, VA Hospital.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r338332516-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>338332516</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice but nothing fancy </t>
+  </si>
+  <si>
+    <t>Nice and clean but nothing extra. They remodeled the units and got rid of carpets. The furnishings reminded me of Ikea's furniture. They have modern styling but were not high end. The room had a flat screen TV and dinette style table/desk.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r257188725-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>257188725</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>I'm not sure what I think...</t>
+  </si>
+  <si>
+    <t>Cops came banging on the door a couple of doors down at 2:45 am, waking up everyone, the office is a cracker box  - I don't think more than 3 people can fit in their comfortably - where do people wait to check in if it's raining?  Had to wait almost half hour to check in because my room wasn't ready, toilet barely flushed, bed kept sliding off of whatever that is they have it resting on - it's not box springs, slowest wi-fi ever but that's with every Motel 6, not just this one. The staff was friendly though...</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r243010693-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>243010693</t>
+  </si>
+  <si>
+    <t>12/04/2014</t>
+  </si>
+  <si>
+    <t>Not Bad. Worth the Money</t>
+  </si>
+  <si>
+    <t>Good Hotel.Front desk executive was kind and responsive.Lots of eateries near by.Room was good. Bathroom was ok. Nothing to complain about.Parking was good. Cleanliness - I would rate 7/10.I liked the place. Felt safe.Cons:I booked it for 91$ / night. Which is bit expensive for these kind of hotels. It could have been much more cheaper. But this rate was during the thanksgiving season. So can't brag about it.Tilted Kilt was nearby. Spent some time there. Morning coffee by hotel - yucky.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r204216934-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>204216934</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>A decent Motel 6!</t>
+  </si>
+  <si>
+    <t>The property seems to be updated. That's a plus. You know it's no-frills, but my room had laminate flooring, decent beds, looked nice. Still attracts sketchy guests b/c it's Motel 6. I actually stayed two nights.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r117238106-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>117238106</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Hated it!!! I will never stay their again!!</t>
+  </si>
+  <si>
+    <t>This place is soooo dirty. For instance, I walked around the room with bare feet and the next thing I noticed is that the bottom of my feet where black. The place smells old and damp. The wifi is not free. No refrigerator and no microwave! I stayed here because I was in between apartments. My new apartment wasn't ready for five days because the prperty management company was painting in it so I had to go somewhere until the new place was ready. I decided to leave after the second day. I found another motel in Los Alamitos that was $52 a night and was way more clean and plus it had a swimming pool!! Please don't stay here...it gross. There are so many other places that have cleaner rooms and also other amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This place is soooo dirty. For instance, I walked around the room with bare feet and the next thing I noticed is that the bottom of my feet where black. The place smells old and damp. The wifi is not free. No refrigerator and no microwave! I stayed here because I was in between apartments. My new apartment wasn't ready for five days because the prperty management company was painting in it so I had to go somewhere until the new place was ready. I decided to leave after the second day. I found another motel in Los Alamitos that was $52 a night and was way more clean and plus it had a swimming pool!! Please don't stay here...it gross. There are so many other places that have cleaner rooms and also other amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r82528461-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>82528461</t>
+  </si>
+  <si>
+    <t>10/07/2010</t>
+  </si>
+  <si>
+    <t>Typical motel 6 - you get what you pay for</t>
+  </si>
+  <si>
+    <t>Typical motel 6 - cheap, clean, no frills.  I stayed because it is adjacent to LBSU, is cheap and my wife wasn't along.  Good bed, thin towels, old tv.  Better value than that Best Western down the street.  OK hotel if you don't plan on spending much time in your room.  Ran wall cooler all night to drown out street noise - at very busy intersection.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r60673597-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>60673597</t>
+  </si>
+  <si>
+    <t>04/07/2010</t>
+  </si>
+  <si>
+    <t>Motel 6 #1312 - 5665 E. 7th Street, LB, CA 90804</t>
+  </si>
+  <si>
+    <t>Please note that there are two (2) Motel 6 properties in Long Beach.  This one is located next to the VA Hospital, CSULB, Ralph's, CVS, gas station, Jack In The Box.  It is further from the "tourist" areas of Long Beach, but much closer to Belmont Shores, Mothers Beach and 2nd Street.  It is a small property, but well maintained and in a great location!!!   There are no bars on windows or scary neighbors.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r2209166-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
+  </si>
+  <si>
+    <t>2209166</t>
+  </si>
+  <si>
+    <t>06/20/2004</t>
+  </si>
+  <si>
+    <t>Typical Motel 6</t>
+  </si>
+  <si>
+    <t>Typical Motel 6 quality. Stayed there June 10. The walls are thin so heard the next door neighbor and people walking by in the hallway. Some traffic noise. Next door is an IHOP which is convenient and didn't have to search for a place to eat.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +897,795 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5908</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_546.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_546.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>TMV14</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I stayed here because my floors were getting refinished and I needed a place to stay that accepted animals.  The rooms have been remodeled, and do not have carpeting--a big plus since animals are allowed.  It was clean, and sparse, yet functional.  Be aware that there is no shampoo provided, and the sheets, towels, and toiler paper are very thin.  No coffee in the room either.  It can also be difficult getting in and out from PCH.  The biggest issue I had was the internet.  It is not included, and you have to go to the front office to purchase a code good for 24 hours.  This code will only work on one device, so if there are two of you in the room, you cannot both be on the internet.  This was incredibly frustrating, but other than that, no real complaints.More</t>
   </si>
   <si>
+    <t>Langelaaa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r431349940-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Lori S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r428794786-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>Check in and check out were easy and the staff very friendly.  Good location, not too far from the waterfront and freeways. Room was extremely clean and looked to have been recently upgraded. The bed and pillows were very comfortable.  Considering the place is on a main street, the noise level was very low. Close to restaurants (Jack in the Box next door, Denny's down the street, several others not far).  Wifi for a charge and no hair dryer in the room were the only negatives.</t>
   </si>
   <si>
+    <t>Richard_Traveler_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r377448274-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -234,6 +246,9 @@
     <t xml:space="preserve">I had business at the LA VAMC and this hotel was close and the price was good. The hotel is located at a very busy intersection. The room was clean. A big flat screen TV. WIFI was available for a price. </t>
   </si>
   <si>
+    <t>Hugo C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r358213721-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -252,6 +267,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>MarriedWidow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r338332516-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>LisaO471</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r257188725-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>srinishines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r243010693-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>photowil</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r204216934-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>joannamk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r117238106-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>This place is soooo dirty. For instance, I walked around the room with bare feet and the next thing I noticed is that the bottom of my feet where black. The place smells old and damp. The wifi is not free. No refrigerator and no microwave! I stayed here because I was in between apartments. My new apartment wasn't ready for five days because the prperty management company was painting in it so I had to go somewhere until the new place was ready. I decided to leave after the second day. I found another motel in Los Alamitos that was $52 a night and was way more clean and plus it had a swimming pool!! Please don't stay here...it gross. There are so many other places that have cleaner rooms and also other amenities.More</t>
   </si>
   <si>
+    <t>rablab</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r82528461-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -369,6 +402,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>muchtraveled33</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r60673597-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
   </si>
   <si>
@@ -382,6 +418,9 @@
   </si>
   <si>
     <t>Please note that there are two (2) Motel 6 properties in Long Beach.  This one is located next to the VA Hospital, CSULB, Ralph's, CVS, gas station, Jack In The Box.  It is further from the "tourist" areas of Long Beach, but much closer to Belmont Shores, Mothers Beach and 2nd Street.  It is a small property, but well maintained and in a great location!!!   There are no bars on windows or scary neighbors.</t>
+  </si>
+  <si>
+    <t>Edwin Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32648-d240153-r2209166-Motel_6_Los_Angeles_Long_Beach-Long_Beach_California.html</t>
@@ -901,43 +940,47 @@
       <c r="A2" t="n">
         <v>5908</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -957,50 +1000,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5908</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1014,50 +1061,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5908</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1075,41 +1126,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5908</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
@@ -1128,50 +1183,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5908</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1189,50 +1248,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5908</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1246,50 +1309,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5908</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1309,50 +1376,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5908</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1370,50 +1441,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5908</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -1437,50 +1512,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5908</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1500,50 +1579,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5908</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -1567,41 +1650,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5908</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -1630,41 +1717,45 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5908</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1683,7 +1774,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
